--- a/학습자료/연표/고려_연도(왕).xlsx
+++ b/학습자료/연표/고려_연도(왕).xlsx
@@ -734,10 +734,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>정방 폐지(충선왕)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>충선왕</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -754,10 +750,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>충선왕 복위교서 발표</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>국학을 성균관으로 개칭</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -806,10 +798,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>정방 폐지(공민왕)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>참설직 설치</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -926,10 +914,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>이성계의 창왕 폐위</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>도평의사사 건의로 무과 설치</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -983,6 +967,22 @@
   </si>
   <si>
     <t>후기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>정방 폐지(1차)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OO왕 복위교서 발표</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>정방 폐지(2차)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이성계의 O왕 폐위</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1348,15 +1348,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88:E199"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="57.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>85</v>
@@ -1365,10 +1368,10 @@
         <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1386,7 +1389,7 @@
         <v>918년 : 태조</v>
       </c>
       <c r="E2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1404,7 +1407,7 @@
         <v>918년 : 태조</v>
       </c>
       <c r="E3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1422,7 +1425,7 @@
         <v>919년 : 태조</v>
       </c>
       <c r="E4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1440,7 +1443,7 @@
         <v>919년 : 태조</v>
       </c>
       <c r="E5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1458,7 +1461,7 @@
         <v>930년 : 태조</v>
       </c>
       <c r="E6" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1476,7 +1479,7 @@
         <v>936년 : 태조</v>
       </c>
       <c r="E7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1494,7 +1497,7 @@
         <v>940년 : 태조</v>
       </c>
       <c r="E8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1512,7 +1515,7 @@
         <v>942년 : 태조</v>
       </c>
       <c r="E9" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1530,7 +1533,7 @@
         <v>943년 : 태조</v>
       </c>
       <c r="E10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1548,7 +1551,7 @@
         <v>945년 : 혜종</v>
       </c>
       <c r="E11" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1566,7 +1569,7 @@
         <v>946년 : 정종</v>
       </c>
       <c r="E12" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1584,7 +1587,7 @@
         <v>946년 : 정종</v>
       </c>
       <c r="E13" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1602,7 +1605,7 @@
         <v>947년 : 정종</v>
       </c>
       <c r="E14" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1620,7 +1623,7 @@
         <v>949년 : 광종</v>
       </c>
       <c r="E15" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1638,7 +1641,7 @@
         <v>956년 : 광종</v>
       </c>
       <c r="E16" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1656,7 +1659,7 @@
         <v>958년 : 광종</v>
       </c>
       <c r="E17" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1674,7 +1677,7 @@
         <v>958년 : 광종</v>
       </c>
       <c r="E18" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1692,7 +1695,7 @@
         <v>960년 : 광종</v>
       </c>
       <c r="E19" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1710,7 +1713,7 @@
         <v>962년 : 광종</v>
       </c>
       <c r="E20" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1728,7 +1731,7 @@
         <v>963년 : 광종</v>
       </c>
       <c r="E21" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1746,7 +1749,7 @@
         <v>963년 : 광종</v>
       </c>
       <c r="E22" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1764,7 +1767,7 @@
         <v>963년 : 광종</v>
       </c>
       <c r="E23" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1782,7 +1785,7 @@
         <v>976년 : 경종</v>
       </c>
       <c r="E24" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1800,7 +1803,7 @@
         <v>982년 : 성종</v>
       </c>
       <c r="E25" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1818,7 +1821,7 @@
         <v>983년 : 성종</v>
       </c>
       <c r="E26" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1836,7 +1839,7 @@
         <v>986년 : 성종</v>
       </c>
       <c r="E27" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1854,7 +1857,7 @@
         <v>986년 : 성종</v>
       </c>
       <c r="E28" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1872,7 +1875,7 @@
         <v>987년 : 성종</v>
       </c>
       <c r="E29" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1890,7 +1893,7 @@
         <v>987년 : 성종</v>
       </c>
       <c r="E30" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1908,7 +1911,7 @@
         <v>990년 : 성종</v>
       </c>
       <c r="E31" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1926,7 +1929,7 @@
         <v>992년 : 성종</v>
       </c>
       <c r="E32" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1944,7 +1947,7 @@
         <v>993년 : 성종</v>
       </c>
       <c r="E33" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1962,7 +1965,7 @@
         <v>993년 : 성종</v>
       </c>
       <c r="E34" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1980,7 +1983,7 @@
         <v>995년 : 성종</v>
       </c>
       <c r="E35" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1998,7 +2001,7 @@
         <v>995년 : 성종</v>
       </c>
       <c r="E36" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -2016,7 +2019,7 @@
         <v>995년 : 성종</v>
       </c>
       <c r="E37" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -2034,7 +2037,7 @@
         <v>995년 : 성종</v>
       </c>
       <c r="E38" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -2052,7 +2055,7 @@
         <v>996년 : 성종</v>
       </c>
       <c r="E39" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -2070,7 +2073,7 @@
         <v>998년 : 목종</v>
       </c>
       <c r="E40" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -2088,7 +2091,7 @@
         <v>1009년 : 목종</v>
       </c>
       <c r="E41" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -2106,7 +2109,7 @@
         <v>1010년 : 현종</v>
       </c>
       <c r="E42" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -2124,7 +2127,7 @@
         <v>1011년 : 현종</v>
       </c>
       <c r="E43" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -2142,7 +2145,7 @@
         <v>1013년 : 현종</v>
       </c>
       <c r="E44" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -2160,7 +2163,7 @@
         <v>1018년 : 현종</v>
       </c>
       <c r="E45" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -2178,7 +2181,7 @@
         <v>1018년 : 현종</v>
       </c>
       <c r="E46" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -2196,7 +2199,7 @@
         <v>1018년 : 현종</v>
       </c>
       <c r="E47" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -2214,7 +2217,7 @@
         <v>1018년 : 현종</v>
       </c>
       <c r="E48" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -2232,7 +2235,7 @@
         <v>1018년 : 현종</v>
       </c>
       <c r="E49" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -2250,7 +2253,7 @@
         <v>1019년 : 현종</v>
       </c>
       <c r="E50" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -2268,7 +2271,7 @@
         <v>1020년 : 현종</v>
       </c>
       <c r="E51" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -2286,7 +2289,7 @@
         <v>1029년 : 현종</v>
       </c>
       <c r="E52" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -2304,7 +2307,7 @@
         <v>1033년 : 덕종</v>
       </c>
       <c r="E53" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -2322,7 +2325,7 @@
         <v>1034년 : 덕종</v>
       </c>
       <c r="E54" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -2340,7 +2343,7 @@
         <v>1039년 : 정종</v>
       </c>
       <c r="E55" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -2358,7 +2361,7 @@
         <v>1044년 : 정종</v>
       </c>
       <c r="E56" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -2376,7 +2379,7 @@
         <v>1049년 : 문종</v>
       </c>
       <c r="E57" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -2394,7 +2397,7 @@
         <v>1055년 : 문종</v>
       </c>
       <c r="E58" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -2412,7 +2415,7 @@
         <v>1057년 : 문종</v>
       </c>
       <c r="E59" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -2430,7 +2433,7 @@
         <v>1067년 : 문종</v>
       </c>
       <c r="E60" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -2448,7 +2451,7 @@
         <v>1076년 : 문종</v>
       </c>
       <c r="E61" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -2466,7 +2469,7 @@
         <v>1077년 : 문종</v>
       </c>
       <c r="E62" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2484,7 +2487,7 @@
         <v>1086년 : 선종</v>
       </c>
       <c r="E63" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -2502,7 +2505,7 @@
         <v>1097년 : 숙종</v>
       </c>
       <c r="E64" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2520,7 +2523,7 @@
         <v>1097년 : 숙종</v>
       </c>
       <c r="E65" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -2538,7 +2541,7 @@
         <v>1099년 : 숙종</v>
       </c>
       <c r="E66" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -2556,7 +2559,7 @@
         <v>1101년 : 숙종</v>
       </c>
       <c r="E67" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -2574,7 +2577,7 @@
         <v>1101년 : 숙종</v>
       </c>
       <c r="E68" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -2592,7 +2595,7 @@
         <v>1102년 : 숙종</v>
       </c>
       <c r="E69" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -2610,7 +2613,7 @@
         <v>1104년 : 숙종</v>
       </c>
       <c r="E70" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -2628,7 +2631,7 @@
         <v>1107년 : 예종</v>
       </c>
       <c r="E71" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -2646,7 +2649,7 @@
         <v>1108년 : 예종</v>
       </c>
       <c r="E72" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -2664,7 +2667,7 @@
         <v>1109년 : 예종</v>
       </c>
       <c r="E73" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -2682,7 +2685,7 @@
         <v>1109년 : 예종</v>
       </c>
       <c r="E74" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -2700,7 +2703,7 @@
         <v>1109년 : 예종</v>
       </c>
       <c r="E75" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -2718,7 +2721,7 @@
         <v>1112년 : 예종</v>
       </c>
       <c r="E76" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -2736,7 +2739,7 @@
         <v>1116년 : 예종</v>
       </c>
       <c r="E77" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -2754,7 +2757,7 @@
         <v>1119년 : 예종</v>
       </c>
       <c r="E78" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -2772,7 +2775,7 @@
         <v>1123년 : 인종</v>
       </c>
       <c r="E79" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -2790,7 +2793,7 @@
         <v>1125년 : 인종</v>
       </c>
       <c r="E80" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -2808,7 +2811,7 @@
         <v>1126년 : 인종</v>
       </c>
       <c r="E81" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -2826,7 +2829,7 @@
         <v>1127년 : 인종</v>
       </c>
       <c r="E82" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -2844,7 +2847,7 @@
         <v>1129년 : 인종</v>
       </c>
       <c r="E83" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -2862,7 +2865,7 @@
         <v>1133년 : 인종</v>
       </c>
       <c r="E84" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -2880,7 +2883,7 @@
         <v>1135년 : 인종</v>
       </c>
       <c r="E85" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -2898,7 +2901,7 @@
         <v>1145년 : 인종</v>
       </c>
       <c r="E86" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -2916,7 +2919,7 @@
         <v>1170년 : 의종</v>
       </c>
       <c r="E87" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -2934,7 +2937,7 @@
         <v>1173년 : 명종</v>
       </c>
       <c r="E88" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -2952,7 +2955,7 @@
         <v>1174년 : 명종</v>
       </c>
       <c r="E89" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -2970,7 +2973,7 @@
         <v>1174년 : 명종</v>
       </c>
       <c r="E90" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -2988,7 +2991,7 @@
         <v>1174년 : 명종</v>
       </c>
       <c r="E91" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -3006,7 +3009,7 @@
         <v>1176년 : 명종</v>
       </c>
       <c r="E92" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -3024,7 +3027,7 @@
         <v>1179년 : 명종</v>
       </c>
       <c r="E93" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -3042,7 +3045,7 @@
         <v>1182년 : 명종</v>
       </c>
       <c r="E94" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -3060,7 +3063,7 @@
         <v>1183년 : 명종</v>
       </c>
       <c r="E95" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -3078,7 +3081,7 @@
         <v>1193년 : 명종</v>
       </c>
       <c r="E96" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -3096,7 +3099,7 @@
         <v>1193년 : 명종</v>
       </c>
       <c r="E97" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -3114,7 +3117,7 @@
         <v>1196년 : 명종</v>
       </c>
       <c r="E98" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -3132,7 +3135,7 @@
         <v>1196년 : 명종</v>
       </c>
       <c r="E99" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -3150,7 +3153,7 @@
         <v>1198년 : 신종</v>
       </c>
       <c r="E100" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -3168,7 +3171,7 @@
         <v>1200년 : 신종</v>
       </c>
       <c r="E101" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -3186,7 +3189,7 @@
         <v>1202년 : 신종</v>
       </c>
       <c r="E102" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -3204,7 +3207,7 @@
         <v>1204년 : 신종</v>
       </c>
       <c r="E103" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -3222,7 +3225,7 @@
         <v>1208년 : 희종</v>
       </c>
       <c r="E104" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -3240,7 +3243,7 @@
         <v>1209년 : 희종</v>
       </c>
       <c r="E105" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -3258,7 +3261,7 @@
         <v>1217년 : 고종</v>
       </c>
       <c r="E106" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -3276,7 +3279,7 @@
         <v>1217년 : 고종</v>
       </c>
       <c r="E107" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -3294,7 +3297,7 @@
         <v>1218년 : 고종</v>
       </c>
       <c r="E108" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -3312,7 +3315,7 @@
         <v>1219년 : 고종</v>
       </c>
       <c r="E109" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -3330,7 +3333,7 @@
         <v>1219년 : 고종</v>
       </c>
       <c r="E110" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -3348,7 +3351,7 @@
         <v>1219년 : 고종</v>
       </c>
       <c r="E111" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -3366,7 +3369,7 @@
         <v>1225년 : 고종</v>
       </c>
       <c r="E112" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -3384,7 +3387,7 @@
         <v>1225년 : 고종</v>
       </c>
       <c r="E113" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -3402,7 +3405,7 @@
         <v>1227년 : 고종</v>
       </c>
       <c r="E114" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -3420,7 +3423,7 @@
         <v>1231년 : 고종</v>
       </c>
       <c r="E115" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -3438,7 +3441,7 @@
         <v>1232년 : 고종</v>
       </c>
       <c r="E116" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -3456,7 +3459,7 @@
         <v>1232년 : 고종</v>
       </c>
       <c r="E117" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -3474,7 +3477,7 @@
         <v>1232년 : 고종</v>
       </c>
       <c r="E118" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -3492,7 +3495,7 @@
         <v>1234년 : 고종</v>
       </c>
       <c r="E119" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -3510,7 +3513,7 @@
         <v>1235년 : 고종</v>
       </c>
       <c r="E120" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -3528,7 +3531,7 @@
         <v>1235년 : 고종</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -3546,7 +3549,7 @@
         <v>1236년 : 고종</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -3564,7 +3567,7 @@
         <v>1237년 : 고종</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -3582,7 +3585,7 @@
         <v>1238년 : 고종</v>
       </c>
       <c r="E124" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -3600,7 +3603,7 @@
         <v>1241년 : 고종</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -3618,7 +3621,7 @@
         <v>1253년 : 고종</v>
       </c>
       <c r="E126" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -3636,7 +3639,7 @@
         <v>1254년 : 고종</v>
       </c>
       <c r="E127" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -3654,7 +3657,7 @@
         <v>1258년 : 고종</v>
       </c>
       <c r="E128" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -3672,7 +3675,7 @@
         <v>1258년 : 고종</v>
       </c>
       <c r="E129" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -3690,7 +3693,7 @@
         <v>1259년 : 고종</v>
       </c>
       <c r="E130" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -3708,7 +3711,7 @@
         <v>1260년 : 고종</v>
       </c>
       <c r="E131" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -3726,7 +3729,7 @@
         <v>1270년 : 원종</v>
       </c>
       <c r="E132" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -3744,7 +3747,7 @@
         <v>1270년 : 원종</v>
       </c>
       <c r="E133" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -3762,7 +3765,7 @@
         <v>1270년 : 원종</v>
       </c>
       <c r="E134" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -3780,7 +3783,7 @@
         <v>1271년 : 원종</v>
       </c>
       <c r="E135" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -3798,7 +3801,7 @@
         <v>1273년 : 원종</v>
       </c>
       <c r="E136" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -3816,7 +3819,7 @@
         <v>1274년 : 원종</v>
       </c>
       <c r="E137" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -3834,7 +3837,7 @@
         <v>1274년 : 충렬왕</v>
       </c>
       <c r="E138" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
@@ -3852,7 +3855,7 @@
         <v>1275년 : 충렬왕</v>
       </c>
       <c r="E139" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
@@ -3870,7 +3873,7 @@
         <v>1278년 : 충렬왕</v>
       </c>
       <c r="E140" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
@@ -3888,7 +3891,7 @@
         <v>1279년 : 충렬왕</v>
       </c>
       <c r="E141" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -3906,7 +3909,7 @@
         <v>1280년 : 충렬왕</v>
       </c>
       <c r="E142" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
@@ -3924,7 +3927,7 @@
         <v>1281년 : 충렬왕</v>
       </c>
       <c r="E143" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -3942,7 +3945,7 @@
         <v>1281년 : 충렬왕</v>
       </c>
       <c r="E144" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -3960,7 +3963,7 @@
         <v>1281년 : 충렬왕</v>
       </c>
       <c r="E145" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -3978,7 +3981,7 @@
         <v>1287년 : 충렬왕</v>
       </c>
       <c r="E146" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -3996,7 +3999,7 @@
         <v>1290년 : 충렬왕</v>
       </c>
       <c r="E147" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
@@ -4014,7 +4017,7 @@
         <v>1290년 : 충렬왕</v>
       </c>
       <c r="E148" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
@@ -4022,17 +4025,17 @@
         <v>1298</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C149" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="D149" t="str">
         <f t="shared" si="2"/>
         <v>1298년 : 충선왕</v>
       </c>
       <c r="E149" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -4040,17 +4043,17 @@
         <v>1298</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D150" t="str">
         <f t="shared" si="2"/>
         <v>1298년 : 충선왕</v>
       </c>
       <c r="E150" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -4058,7 +4061,7 @@
         <v>1301</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>166</v>
@@ -4068,7 +4071,7 @@
         <v>1301년 : 충렬왕</v>
       </c>
       <c r="E151" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -4076,7 +4079,7 @@
         <v>1304</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>166</v>
@@ -4086,7 +4089,7 @@
         <v>1304년 : 충렬왕</v>
       </c>
       <c r="E152" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
@@ -4094,17 +4097,17 @@
         <v>1308</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D153" t="str">
         <f t="shared" si="2"/>
         <v>1308년 : 충선왕</v>
       </c>
       <c r="E153" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -4112,17 +4115,17 @@
         <v>1308</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D154" t="str">
         <f t="shared" si="2"/>
         <v>1308년 : 충선왕</v>
       </c>
       <c r="E154" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -4130,17 +4133,17 @@
         <v>1309</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D155" t="str">
         <f t="shared" si="2"/>
         <v>1309년 : 충선왕</v>
       </c>
       <c r="E155" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
@@ -4148,17 +4151,17 @@
         <v>1309</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D156" t="str">
         <f t="shared" si="2"/>
         <v>1309년 : 충선왕</v>
       </c>
       <c r="E156" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
@@ -4166,17 +4169,17 @@
         <v>1314</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D157" t="str">
         <f t="shared" si="2"/>
         <v>1314년 : 충숙왕</v>
       </c>
       <c r="E157" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
@@ -4184,17 +4187,17 @@
         <v>1317</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D158" t="str">
         <f t="shared" si="2"/>
         <v>1317년 : 충숙왕</v>
       </c>
       <c r="E158" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
@@ -4202,17 +4205,17 @@
         <v>1318</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D159" t="str">
         <f t="shared" si="2"/>
         <v>1318년 : 충숙왕</v>
       </c>
       <c r="E159" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -4220,17 +4223,17 @@
         <v>1318</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D160" t="str">
         <f t="shared" si="2"/>
         <v>1318년 : 충숙왕</v>
       </c>
       <c r="E160" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -4238,17 +4241,17 @@
         <v>1347</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D161" t="str">
         <f t="shared" si="2"/>
         <v>1347년 : 충목왕</v>
       </c>
       <c r="E161" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -4256,17 +4259,17 @@
         <v>1352</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D162" t="str">
         <f t="shared" si="2"/>
         <v>1352년 : 공민왕</v>
       </c>
       <c r="E162" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
@@ -4274,17 +4277,17 @@
         <v>1352</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D163" t="str">
         <f t="shared" si="2"/>
         <v>1352년 : 공민왕</v>
       </c>
       <c r="E163" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
@@ -4292,17 +4295,17 @@
         <v>1354</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D164" t="str">
         <f t="shared" si="2"/>
         <v>1354년 : 공민왕</v>
       </c>
       <c r="E164" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
@@ -4310,17 +4313,17 @@
         <v>1356</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D165" t="str">
         <f t="shared" si="2"/>
         <v>1356년 : 공민왕</v>
       </c>
       <c r="E165" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
@@ -4328,17 +4331,17 @@
         <v>1356</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D166" t="str">
         <f t="shared" si="2"/>
         <v>1356년 : 공민왕</v>
       </c>
       <c r="E166" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
@@ -4346,17 +4349,17 @@
         <v>1356</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D167" t="str">
         <f t="shared" si="2"/>
         <v>1356년 : 공민왕</v>
       </c>
       <c r="E167" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
@@ -4364,17 +4367,17 @@
         <v>1356</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D168" t="str">
         <f t="shared" si="2"/>
         <v>1356년 : 공민왕</v>
       </c>
       <c r="E168" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
@@ -4382,17 +4385,17 @@
         <v>1357</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D169" t="str">
         <f t="shared" si="2"/>
         <v>1357년 : 공민왕</v>
       </c>
       <c r="E169" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
@@ -4400,17 +4403,17 @@
         <v>1359</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D170" t="str">
         <f t="shared" si="2"/>
         <v>1359년 : 공민왕</v>
       </c>
       <c r="E170" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
@@ -4418,17 +4421,17 @@
         <v>1361</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D171" t="str">
         <f t="shared" si="2"/>
         <v>1361년 : 공민왕</v>
       </c>
       <c r="E171" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
@@ -4436,17 +4439,17 @@
         <v>1362</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D172" t="str">
         <f t="shared" si="2"/>
         <v>1362년 : 공민왕</v>
       </c>
       <c r="E172" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
@@ -4454,17 +4457,17 @@
         <v>1363</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D173" t="str">
         <f t="shared" si="2"/>
         <v>1363년 : 공민왕</v>
       </c>
       <c r="E173" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
@@ -4472,17 +4475,17 @@
         <v>1366</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D174" t="str">
         <f t="shared" si="2"/>
         <v>1366년 : 공민왕</v>
       </c>
       <c r="E174" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
@@ -4490,17 +4493,17 @@
         <v>1367</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D175" t="str">
         <f t="shared" si="2"/>
         <v>1367년 : 공민왕</v>
       </c>
       <c r="E175" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
@@ -4508,17 +4511,17 @@
         <v>1367</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D176" t="str">
         <f t="shared" si="2"/>
         <v>1367년 : 공민왕</v>
       </c>
       <c r="E176" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
@@ -4526,17 +4529,17 @@
         <v>1370</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D177" t="str">
         <f t="shared" si="2"/>
         <v>1370년 : 공민왕</v>
       </c>
       <c r="E177" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
@@ -4544,17 +4547,17 @@
         <v>1370</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D178" t="str">
         <f t="shared" si="2"/>
         <v>1370년 : 공민왕</v>
       </c>
       <c r="E178" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
@@ -4562,17 +4565,17 @@
         <v>1372</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D179" t="str">
         <f t="shared" si="2"/>
         <v>1372년 : 공민왕</v>
       </c>
       <c r="E179" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
@@ -4580,17 +4583,17 @@
         <v>1376</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D180" t="str">
         <f t="shared" si="2"/>
         <v>1376년 : 우왕</v>
       </c>
       <c r="E180" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
@@ -4598,17 +4601,17 @@
         <v>1377</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D181" t="str">
         <f t="shared" si="2"/>
         <v>1377년 : 우왕</v>
       </c>
       <c r="E181" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
@@ -4616,17 +4619,17 @@
         <v>1377</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D182" t="str">
         <f t="shared" si="2"/>
         <v>1377년 : 우왕</v>
       </c>
       <c r="E182" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
@@ -4634,17 +4637,17 @@
         <v>1380</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D183" t="str">
         <f t="shared" si="2"/>
         <v>1380년 : 우왕</v>
       </c>
       <c r="E183" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
@@ -4652,17 +4655,17 @@
         <v>1380</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D184" t="str">
         <f t="shared" si="2"/>
         <v>1380년 : 우왕</v>
       </c>
       <c r="E184" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
@@ -4670,17 +4673,17 @@
         <v>1383</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D185" t="str">
         <f t="shared" si="2"/>
         <v>1383년 : 우왕</v>
       </c>
       <c r="E185" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
@@ -4688,17 +4691,17 @@
         <v>1388</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D186" t="str">
         <f t="shared" si="2"/>
         <v>1388년 : 우왕</v>
       </c>
       <c r="E186" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
@@ -4706,17 +4709,17 @@
         <v>1388</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D187" t="str">
         <f t="shared" si="2"/>
         <v>1388년 : 우왕</v>
       </c>
       <c r="E187" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
@@ -4724,17 +4727,17 @@
         <v>1388</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D188" t="str">
         <f t="shared" si="2"/>
         <v>1388년 : 우왕</v>
       </c>
       <c r="E188" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
@@ -4742,17 +4745,17 @@
         <v>1388</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D189" t="str">
         <f t="shared" si="2"/>
         <v>1388년 : 창왕</v>
       </c>
       <c r="E189" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
@@ -4760,17 +4763,17 @@
         <v>1389</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D190" t="str">
         <f t="shared" si="2"/>
         <v>1389년 : 창왕</v>
       </c>
       <c r="E190" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
@@ -4778,17 +4781,17 @@
         <v>1389</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D191" t="str">
         <f t="shared" si="2"/>
         <v>1389년 : 창왕</v>
       </c>
       <c r="E191" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
@@ -4796,17 +4799,17 @@
         <v>1390</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D192" t="str">
         <f t="shared" si="2"/>
         <v>1390년 : 공양왕</v>
       </c>
       <c r="E192" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
@@ -4814,17 +4817,17 @@
         <v>1391</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D193" t="str">
         <f t="shared" si="2"/>
         <v>1391년 : 공양왕</v>
       </c>
       <c r="E193" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
@@ -4832,17 +4835,17 @@
         <v>1391</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D194" t="str">
         <f t="shared" si="2"/>
         <v>1391년 : 공양왕</v>
       </c>
       <c r="E194" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
@@ -4850,17 +4853,17 @@
         <v>1391</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D195" t="str">
         <f t="shared" ref="D195:D199" si="3">CONCATENATE(A195,"년 : ", C195)</f>
         <v>1391년 : 공양왕</v>
       </c>
       <c r="E195" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
@@ -4868,17 +4871,17 @@
         <v>1391</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D196" t="str">
         <f t="shared" si="3"/>
         <v>1391년 : 공양왕</v>
       </c>
       <c r="E196" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
@@ -4886,17 +4889,17 @@
         <v>1392</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D197" t="str">
         <f t="shared" si="3"/>
         <v>1392년 : 공양왕</v>
       </c>
       <c r="E197" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
@@ -4904,17 +4907,17 @@
         <v>1392</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D198" t="str">
         <f t="shared" si="3"/>
         <v>1392년 : 공양왕</v>
       </c>
       <c r="E198" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
@@ -4922,17 +4925,17 @@
         <v>1392</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D199" t="str">
         <f t="shared" si="3"/>
         <v>1392년 : 공양왕</v>
       </c>
       <c r="E199" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
